--- a/Master NIEM Document/Mapping_Spreadsheets/02 Substitution Groups.xlsx
+++ b/Master NIEM Document/Mapping_Spreadsheets/02 Substitution Groups.xlsx
@@ -5,15 +5,15 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - CrashDriverReport Com" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - Crash Driver Report" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
-  <si>
-    <t>CrashDriverReport Complete</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+  <si>
+    <t>Crash Driver Report</t>
   </si>
   <si>
     <t>Class</t>
@@ -82,9 +82,6 @@
     <t>A human being.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person</t>
-  </si>
-  <si>
     <t>Birth Date</t>
   </si>
   <si>
@@ -103,7 +100,7 @@
     <t>A date a person was born.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonBirthDate</t>
+    <t>nc:Person/nc:PersonBirthDate</t>
   </si>
   <si>
     <t>nc:DateRepresentation</t>
@@ -112,7 +109,7 @@
     <t>A data concept for a representation of a date.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonBirthDate/[nc:DateRepresentation]</t>
+    <t>nc:Person/nc:PersonBirthDate/[nc:DateRepresentation]</t>
   </si>
   <si>
     <t>nc:Date</t>
@@ -124,7 +121,7 @@
     <t>A full date.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonBirthDate/[nc:DateRepresentation]/nc:Date</t>
+    <t>nc:Person/nc:PersonBirthDate/[nc:DateRepresentation]/nc:Date</t>
   </si>
   <si>
     <t>nc:PersonName</t>
@@ -136,7 +133,7 @@
     <t>A combination of names and/or titles by which a person is known.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonName</t>
+    <t>nc:Person/nc:PersonName</t>
   </si>
   <si>
     <t>First Name</t>
@@ -154,7 +151,7 @@
     <t>A first name of a person.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonName/nc:PersonGivenName</t>
+    <t>nc:Person/nc:PersonName/nc:PersonGivenName</t>
   </si>
   <si>
     <t>Middle Name</t>
@@ -175,7 +172,7 @@
     <t>0..many</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonName/nc:PersonMiddleName</t>
+    <t>nc:Person/nc:PersonName/nc:PersonMiddleName</t>
   </si>
   <si>
     <t>Last Name</t>
@@ -190,7 +187,7 @@
     <t>A last name or family name of a person.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonName/nc:PersonSurName</t>
+    <t>nc:Person/nc:PersonName/nc:PersonSurName</t>
   </si>
   <si>
     <t>Crash</t>
@@ -2001,7 +1998,7 @@
       <c r="N4" s="23"/>
       <c r="O4" s="23"/>
       <c r="P4" t="s" s="25">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -2009,22 +2006,22 @@
         <v>17</v>
       </c>
       <c r="B5" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s" s="18">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="18">
+      <c r="D5" t="s" s="19">
         <v>25</v>
-      </c>
-      <c r="D5" t="s" s="19">
-        <v>26</v>
       </c>
       <c r="E5" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F5" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s" s="27">
         <v>27</v>
-      </c>
-      <c r="G5" t="s" s="27">
-        <v>28</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" t="s" s="27">
@@ -2033,7 +2030,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
       <c r="L5" t="s" s="29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s" s="27">
         <v>19</v>
@@ -2041,7 +2038,7 @@
       <c r="N5" s="28"/>
       <c r="O5" s="28"/>
       <c r="P5" t="s" s="30">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -2051,17 +2048,17 @@
       <c r="D6" s="17"/>
       <c r="E6" s="33"/>
       <c r="F6" t="s" s="26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" t="s" s="27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" t="s" s="29">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s" s="27">
         <v>19</v>
@@ -2069,7 +2066,7 @@
       <c r="N6" s="28"/>
       <c r="O6" s="28"/>
       <c r="P6" t="s" s="30">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -2079,25 +2076,25 @@
       <c r="D7" s="17"/>
       <c r="E7" s="33"/>
       <c r="F7" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s" s="27">
         <v>34</v>
-      </c>
-      <c r="G7" t="s" s="27">
-        <v>35</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" t="s" s="27">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" s="28"/>
       <c r="L7" t="s" s="29">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
       <c r="O7" s="28"/>
       <c r="P7" t="s" s="30">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -2107,10 +2104,10 @@
       <c r="D8" s="17"/>
       <c r="E8" s="33"/>
       <c r="F8" t="s" s="21">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s" s="22">
         <v>38</v>
-      </c>
-      <c r="G8" t="s" s="22">
-        <v>39</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" t="s" s="22">
@@ -2119,7 +2116,7 @@
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" t="s" s="24">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" t="s" s="22">
         <v>19</v>
@@ -2127,7 +2124,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" t="s" s="25">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -2135,31 +2132,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s" s="19">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s" s="18">
         <v>42</v>
       </c>
-      <c r="C9" t="s" s="18">
-        <v>43</v>
-      </c>
       <c r="D9" t="s" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F9" t="s" s="21">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s" s="22">
         <v>44</v>
-      </c>
-      <c r="G9" t="s" s="22">
-        <v>45</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" t="s" s="22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" t="s" s="24">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s" s="22">
         <v>19</v>
@@ -2167,7 +2164,7 @@
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
       <c r="P9" t="s" s="25">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -2175,39 +2172,39 @@
         <v>17</v>
       </c>
       <c r="B10" t="s" s="19">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s" s="18">
         <v>48</v>
       </c>
-      <c r="C10" t="s" s="18">
+      <c r="D10" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s" s="20">
         <v>49</v>
       </c>
-      <c r="D10" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s" s="20">
+      <c r="F10" t="s" s="21">
         <v>50</v>
       </c>
-      <c r="F10" t="s" s="21">
-        <v>51</v>
-      </c>
       <c r="G10" t="s" s="22">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" t="s" s="22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" t="s" s="24">
+        <v>51</v>
+      </c>
+      <c r="M10" t="s" s="22">
         <v>52</v>
-      </c>
-      <c r="M10" t="s" s="22">
-        <v>53</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
       <c r="P10" t="s" s="25">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -2215,31 +2212,31 @@
         <v>17</v>
       </c>
       <c r="B11" t="s" s="19">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s" s="18">
         <v>55</v>
       </c>
-      <c r="C11" t="s" s="18">
-        <v>56</v>
-      </c>
       <c r="D11" t="s" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F11" t="s" s="21">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s" s="22">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11" t="s" s="22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" t="s" s="24">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M11" t="s" s="22">
         <v>19</v>
@@ -2247,16 +2244,16 @@
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" t="s" s="25">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="16">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" t="s" s="18">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s" s="19">
         <v>1</v>
@@ -2278,16 +2275,16 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="16">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s" s="19">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s" s="18">
         <v>62</v>
       </c>
-      <c r="C13" t="s" s="18">
-        <v>63</v>
-      </c>
       <c r="D13" t="s" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s" s="20">
         <v>19</v>
@@ -2306,11 +2303,11 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="16">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" t="s" s="18">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s" s="19">
         <v>1</v>
@@ -2332,16 +2329,16 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="16">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s" s="19">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s" s="18">
         <v>66</v>
       </c>
-      <c r="C15" t="s" s="18">
-        <v>67</v>
-      </c>
       <c r="D15" t="s" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s" s="20">
         <v>19</v>
@@ -2360,16 +2357,16 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="16">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s" s="19">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s" s="18">
         <v>68</v>
       </c>
-      <c r="C16" t="s" s="18">
-        <v>69</v>
-      </c>
       <c r="D16" t="s" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s" s="20">
         <v>19</v>
@@ -2388,17 +2385,17 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="16">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" t="s" s="18">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s" s="19">
         <v>1</v>
       </c>
       <c r="E17" t="s" s="20">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="23"/>
@@ -2414,16 +2411,16 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="16">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s" s="19">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s" s="18">
         <v>72</v>
       </c>
-      <c r="C18" t="s" s="18">
-        <v>73</v>
-      </c>
       <c r="D18" t="s" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s" s="20">
         <v>19</v>
@@ -2442,16 +2439,16 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="16">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s" s="19">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s" s="18">
         <v>74</v>
       </c>
-      <c r="C19" t="s" s="18">
+      <c r="D19" t="s" s="19">
         <v>75</v>
-      </c>
-      <c r="D19" t="s" s="19">
-        <v>76</v>
       </c>
       <c r="E19" t="s" s="20">
         <v>19</v>
@@ -2470,16 +2467,16 @@
     </row>
     <row r="20" ht="32.05" customHeight="1">
       <c r="A20" t="s" s="16">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s" s="19">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s" s="18">
         <v>77</v>
       </c>
-      <c r="C20" t="s" s="18">
+      <c r="D20" t="s" s="19">
         <v>78</v>
-      </c>
-      <c r="D20" t="s" s="19">
-        <v>79</v>
       </c>
       <c r="E20" t="s" s="20">
         <v>19</v>
@@ -2498,16 +2495,16 @@
     </row>
     <row r="21" ht="32.05" customHeight="1">
       <c r="A21" t="s" s="16">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s" s="19">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s" s="18">
         <v>80</v>
       </c>
-      <c r="C21" t="s" s="18">
-        <v>81</v>
-      </c>
       <c r="D21" t="s" s="19">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s" s="20">
         <v>19</v>
@@ -2526,16 +2523,16 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="16">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s" s="19">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s" s="18">
         <v>82</v>
       </c>
-      <c r="C22" t="s" s="18">
-        <v>83</v>
-      </c>
       <c r="D22" t="s" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s" s="20">
         <v>19</v>
@@ -2554,16 +2551,16 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="16">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s" s="19">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s" s="18">
         <v>82</v>
       </c>
-      <c r="C23" t="s" s="18">
-        <v>83</v>
-      </c>
       <c r="D23" t="s" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s" s="20">
         <v>19</v>
@@ -2582,17 +2579,17 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="16">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" t="s" s="18">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s" s="19">
         <v>1</v>
       </c>
       <c r="E24" t="s" s="20">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="23"/>
@@ -2608,16 +2605,16 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="16">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s" s="19">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s" s="18">
         <v>87</v>
       </c>
-      <c r="C25" t="s" s="18">
-        <v>88</v>
-      </c>
       <c r="D25" t="s" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s" s="20">
         <v>19</v>
@@ -2636,16 +2633,16 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="16">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s" s="19">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s" s="18">
         <v>89</v>
       </c>
-      <c r="C26" t="s" s="18">
-        <v>90</v>
-      </c>
       <c r="D26" t="s" s="19">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s" s="20">
         <v>19</v>
@@ -2664,16 +2661,16 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="37">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s" s="38">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s" s="39">
         <v>91</v>
       </c>
-      <c r="C27" t="s" s="39">
-        <v>92</v>
-      </c>
       <c r="D27" t="s" s="38">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s" s="40">
         <v>19</v>
